--- a/posesiones/1381242.xlsx
+++ b/posesiones/1381242.xlsx
@@ -1937,10 +1937,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2131,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>15</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2328,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>10</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2431,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>16</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2578,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>28</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2875,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R22">
         <v>6</v>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R24">
         <v>13</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3128,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R27">
         <v>24</v>
@@ -3181,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R28">
         <v>14</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3284,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R30">
         <v>18</v>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R32">
         <v>8</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3487,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>20</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3590,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R36">
         <v>7</v>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3693,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R38">
         <v>12</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R40">
         <v>14</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R44">
         <v>17</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R46">
         <v>20</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4287,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R50">
         <v>17</v>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4481,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R54">
         <v>17</v>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R55">
         <v>14</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R59">
         <v>29</v>
@@ -4781,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R60">
         <v>16</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R64">
         <v>14</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R66">
         <v>13</v>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R68">
         <v>6</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5290,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R70">
         <v>22</v>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5675,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R78">
         <v>26</v>
@@ -5728,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R79">
         <v>13</v>
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5828,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R81">
         <v>18</v>
@@ -5881,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R82">
         <v>17</v>
@@ -5934,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R83">
         <v>8</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R84">
         <v>20</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6325,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R91">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6428,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R93">
         <v>20</v>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6713,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6763,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R100">
         <v>13</v>
@@ -6816,7 +6816,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R101">
         <v>22</v>
@@ -6869,7 +6869,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R102">
         <v>17</v>
@@ -6922,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6972,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R104">
         <v>19</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7072,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R106">
         <v>6</v>
@@ -7116,10 +7116,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7160,10 +7160,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R109">
         <v>11</v>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7316,7 +7316,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R111">
         <v>9</v>
@@ -7369,7 +7369,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R112">
         <v>13</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7472,7 +7472,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R114">
         <v>11</v>
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7575,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R116">
         <v>7</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7678,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R118">
         <v>9</v>
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7781,7 +7781,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R120">
         <v>6</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7884,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R122">
         <v>7</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7984,7 +7984,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R124">
         <v>15</v>
@@ -8034,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8087,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R126">
         <v>20</v>
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8184,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8281,7 +8281,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R130">
         <v>5</v>
@@ -8334,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R131">
         <v>15</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8666,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8763,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R140">
         <v>23</v>
@@ -8816,7 +8816,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R141">
         <v>4</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8916,7 +8916,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R143">
         <v>11</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9060,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9110,7 +9110,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R147">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R148">
         <v>15</v>
@@ -9216,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9266,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R150">
         <v>16</v>
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9369,7 +9369,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R152">
         <v>8</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9513,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9610,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R157">
         <v>0</v>
@@ -9663,7 +9663,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R158">
         <v>19</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R160">
         <v>19</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9860,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9907,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -10001,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10145,7 +10145,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R168">
         <v>26</v>
@@ -10195,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10242,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10339,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R172">
         <v>11</v>
@@ -10386,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10574,7 +10574,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10621,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10762,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10856,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10903,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10950,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10997,7 +10997,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11044,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11094,7 +11094,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R188">
         <v>28</v>
@@ -11147,7 +11147,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R189">
         <v>16</v>
@@ -11197,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11247,7 +11247,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R191">
         <v>20</v>
@@ -11300,7 +11300,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R192">
         <v>18</v>
@@ -11350,7 +11350,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11400,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R194">
         <v>4</v>
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11544,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11594,7 +11594,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R198">
         <v>0</v>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11691,7 +11691,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11738,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11785,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11832,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11882,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R204">
         <v>10</v>
@@ -11935,7 +11935,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R205">
         <v>10</v>
@@ -11985,7 +11985,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12029,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12079,7 +12079,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R208">
         <v>11</v>
@@ -12132,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12182,7 +12182,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R210">
         <v>8</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12279,7 +12279,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12329,7 +12329,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R213">
         <v>15</v>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12432,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R215">
         <v>15</v>
@@ -12485,7 +12485,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12535,7 +12535,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R217">
         <v>7</v>
@@ -12588,7 +12588,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R218">
         <v>21</v>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R220">
         <v>20</v>
@@ -12738,7 +12738,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12785,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12882,7 +12882,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R224">
         <v>10</v>
@@ -12932,7 +12932,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12982,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13029,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13079,7 +13079,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13129,7 +13129,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R229">
         <v>30</v>
@@ -13182,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13232,7 +13232,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R231">
         <v>25</v>
@@ -13285,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13379,7 +13379,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13426,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13473,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13517,7 +13517,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13567,7 +13567,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R238">
         <v>11</v>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13661,7 +13661,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13708,7 +13708,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13755,7 +13755,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13849,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13899,7 +13899,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R245">
         <v>18</v>
@@ -13952,7 +13952,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R246">
         <v>18</v>
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14055,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R248">
         <v>0</v>
@@ -14108,7 +14108,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="R249">
         <v>5</v>
@@ -14152,10 +14152,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q250">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14202,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14249,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14296,7 +14296,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14343,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14390,7 +14390,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14437,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14478,10 +14478,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q257">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14531,7 +14531,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R258">
         <v>15</v>
@@ -14584,7 +14584,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R259">
         <v>7</v>
@@ -14634,7 +14634,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14681,7 +14681,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14728,7 +14728,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14775,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14825,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14872,7 +14872,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14922,7 +14922,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14969,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15016,7 +15016,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15063,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15113,7 +15113,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15163,7 +15163,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R271">
         <v>24</v>
@@ -15216,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15266,7 +15266,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R273">
         <v>8</v>
@@ -15319,7 +15319,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R274">
         <v>17</v>
@@ -15369,7 +15369,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15419,7 +15419,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R276">
         <v>15</v>
@@ -15469,7 +15469,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15563,7 +15563,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15613,7 +15613,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R280">
         <v>24</v>
@@ -15666,7 +15666,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R281">
         <v>17</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15769,7 +15769,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R283">
         <v>7</v>
@@ -15819,7 +15819,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15869,7 +15869,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R285">
         <v>19</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R286">
         <v>21</v>
@@ -15975,7 +15975,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -16025,7 +16025,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R288">
         <v>5</v>
@@ -16078,7 +16078,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R289">
         <v>21</v>
@@ -16131,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R290">
         <v>16</v>
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16231,7 +16231,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16281,7 +16281,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R293">
         <v>21</v>
@@ -16331,7 +16331,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16378,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16425,7 +16425,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16472,7 +16472,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16519,7 +16519,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16569,7 +16569,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R299">
         <v>14</v>
@@ -16622,7 +16622,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R300">
         <v>13</v>
@@ -16672,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16722,7 +16722,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R302">
         <v>5</v>
@@ -16772,7 +16772,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16822,7 +16822,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R304">
         <v>15</v>
@@ -16875,7 +16875,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16925,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R306">
         <v>7</v>
@@ -16975,7 +16975,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -17025,7 +17025,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R308">
         <v>7</v>
@@ -17078,7 +17078,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R309">
         <v>11</v>
@@ -17131,7 +17131,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R310">
         <v>20</v>
@@ -17181,7 +17181,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17231,7 +17231,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R312">
         <v>25</v>
@@ -17284,7 +17284,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17334,7 +17334,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R314">
         <v>8</v>
@@ -17387,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17437,7 +17437,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R316">
         <v>7</v>
@@ -17490,7 +17490,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17537,7 +17537,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17587,7 +17587,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17637,7 +17637,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R320">
         <v>19</v>
@@ -17690,7 +17690,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17740,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R322">
         <v>5</v>
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17840,7 +17840,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R324">
         <v>3</v>
@@ -17890,7 +17890,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17934,7 +17934,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17981,7 +17981,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -18028,7 +18028,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R329">
         <v>12</v>
@@ -18131,7 +18131,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18181,7 +18181,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R331">
         <v>6</v>
@@ -18231,7 +18231,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18281,7 +18281,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18331,7 +18331,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R334">
         <v>6</v>
@@ -18381,7 +18381,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18428,7 +18428,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18475,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18525,7 +18525,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R338">
         <v>19</v>
@@ -18578,7 +18578,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R339">
         <v>14</v>
@@ -18631,7 +18631,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18678,7 +18678,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18725,7 +18725,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18772,7 +18772,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18822,7 +18822,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R344">
         <v>16</v>
@@ -18875,7 +18875,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18922,7 +18922,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -19016,7 +19016,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -19066,7 +19066,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R349">
         <v>8</v>
@@ -19119,7 +19119,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19169,7 +19169,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R351">
         <v>19</v>
@@ -19222,7 +19222,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19272,7 +19272,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R353">
         <v>10</v>
@@ -19325,7 +19325,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R354">
         <v>14</v>
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19428,7 +19428,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R356">
         <v>19</v>
@@ -19481,7 +19481,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19528,7 +19528,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19578,7 +19578,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19625,7 +19625,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R360">
         <v>18</v>
@@ -19678,7 +19678,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R361">
         <v>21</v>
@@ -19728,7 +19728,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19778,7 +19778,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="R363">
         <v>20</v>
@@ -19834,7 +19834,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R364">
         <v>2</v>
@@ -19878,10 +19878,10 @@
         <v>1</v>
       </c>
       <c r="P365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q365">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19928,7 +19928,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19975,7 +19975,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -20022,7 +20022,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -20069,7 +20069,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20110,10 +20110,10 @@
         <v>1</v>
       </c>
       <c r="P370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q370">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20163,7 +20163,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R371">
         <v>12</v>
@@ -20216,7 +20216,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R372">
         <v>18</v>
@@ -20266,7 +20266,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20313,7 +20313,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20360,7 +20360,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20407,7 +20407,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20457,7 +20457,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R377">
         <v>15</v>
@@ -20510,7 +20510,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20557,7 +20557,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20604,7 +20604,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20648,7 +20648,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20695,7 +20695,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20742,7 +20742,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20792,7 +20792,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R384">
         <v>30</v>
@@ -20845,7 +20845,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20895,7 +20895,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R386">
         <v>9</v>
@@ -20948,7 +20948,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20998,7 +20998,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R388">
         <v>17</v>
@@ -21051,7 +21051,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21101,7 +21101,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R390">
         <v>22</v>
@@ -21154,7 +21154,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21201,7 +21201,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21248,7 +21248,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21295,7 +21295,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21342,7 +21342,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21389,7 +21389,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21436,7 +21436,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21480,7 +21480,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21530,7 +21530,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R399">
         <v>18</v>
@@ -21583,7 +21583,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R400">
         <v>18</v>
@@ -21636,7 +21636,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21683,7 +21683,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21733,7 +21733,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21780,7 +21780,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21830,7 +21830,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21877,7 +21877,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21924,7 +21924,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21971,7 +21971,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -22018,7 +22018,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -22065,7 +22065,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22115,7 +22115,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R411">
         <v>20</v>
@@ -22168,7 +22168,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R412">
         <v>15</v>
@@ -22221,7 +22221,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R413">
         <v>21</v>
@@ -22274,7 +22274,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22324,7 +22324,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R415">
         <v>17</v>
@@ -22374,7 +22374,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22421,7 +22421,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22468,7 +22468,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22515,7 +22515,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22612,7 +22612,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R421">
         <v>6</v>
@@ -22662,7 +22662,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22759,7 +22759,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R424">
         <v>14</v>
@@ -22809,7 +22809,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22856,7 +22856,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22903,7 +22903,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22953,7 +22953,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -23003,7 +23003,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R429">
         <v>12</v>
@@ -23053,7 +23053,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23103,7 +23103,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23150,7 +23150,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23200,7 +23200,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23250,7 +23250,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R434">
         <v>21</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23350,7 +23350,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23397,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23447,7 +23447,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R438">
         <v>22</v>
@@ -23500,7 +23500,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R439">
         <v>19</v>
@@ -23550,7 +23550,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23600,7 +23600,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R441">
         <v>11</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23703,7 +23703,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R443">
         <v>12</v>
@@ -23756,7 +23756,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23806,7 +23806,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R445">
         <v>26</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23903,7 +23903,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23997,7 +23997,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -24047,7 +24047,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R450">
         <v>21</v>
@@ -24100,7 +24100,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R451">
         <v>16</v>
@@ -24150,7 +24150,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24200,7 +24200,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R453">
         <v>17</v>
@@ -24253,7 +24253,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R454">
         <v>26</v>
@@ -24306,7 +24306,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24400,7 +24400,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24447,7 +24447,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24541,7 +24541,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24638,7 +24638,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R462">
         <v>6</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24735,7 +24735,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24782,7 +24782,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24829,7 +24829,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24876,7 +24876,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24923,7 +24923,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -25020,7 +25020,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R470">
         <v>14</v>
@@ -25070,7 +25070,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25167,7 +25167,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25217,7 +25217,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25267,7 +25267,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R475">
         <v>26</v>
@@ -25320,7 +25320,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R476">
         <v>12</v>
@@ -25370,7 +25370,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25417,7 +25417,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25464,7 +25464,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25514,7 +25514,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R480">
         <v>22</v>
@@ -25567,7 +25567,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R481">
         <v>12</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25667,7 +25667,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R483">
         <v>9</v>
@@ -25720,7 +25720,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25767,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25814,7 +25814,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25861,7 +25861,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25911,7 +25911,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R488">
         <v>4</v>
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -26005,7 +26005,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -26052,7 +26052,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26099,7 +26099,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26146,7 +26146,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26193,7 +26193,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26240,7 +26240,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26287,7 +26287,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26337,7 +26337,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R497">
         <v>9</v>
@@ -26390,7 +26390,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26440,7 +26440,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R499">
         <v>3</v>
@@ -26493,7 +26493,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R500">
         <v>7</v>
@@ -26543,7 +26543,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26593,7 +26593,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R502">
         <v>9</v>
@@ -26646,7 +26646,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26696,7 +26696,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="R504">
         <v>8</v>
@@ -26752,7 +26752,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="R505">
         <v>0</v>
@@ -26796,10 +26796,10 @@
         <v>1</v>
       </c>
       <c r="P506" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q506">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26840,7 +26840,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
